--- a/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>TLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,24 +708,27 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E8" s="3">
         <v>43100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,24 +741,27 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E9" s="3">
         <v>28900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,24 +774,27 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,23 +825,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,53 +888,59 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>80600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,23 +969,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>468700</v>
+      </c>
+      <c r="E17" s="3">
         <v>100800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,24 +999,27 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-301700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,24 +1080,27 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-279100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-59500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,24 +1113,27 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E22" s="3">
         <v>9100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,24 +1146,27 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-329600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-72200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1164,12 +1209,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,24 +1245,27 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-67700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,24 +1278,27 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-67700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,24 +1476,27 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-67700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,24 +1542,27 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-67700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,23 +1646,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E41" s="3">
         <v>487300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,18 +1676,21 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>30300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,27 +1706,30 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,24 +1742,27 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E44" s="3">
         <v>16200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,24 +1808,27 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E46" s="3">
         <v>554300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,18 +1841,21 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E47" s="3">
         <v>16900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1767,27 +1871,30 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E48" s="3">
         <v>80200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,24 +1907,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>392100</v>
+      </c>
+      <c r="E49" s="3">
         <v>4500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2006,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,24 +2072,27 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>896300</v>
+      </c>
+      <c r="E54" s="3">
         <v>656700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,23 +2138,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,24 +2168,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,24 +2201,27 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E59" s="3">
         <v>14800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,27 +2231,30 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E60" s="3">
         <v>25900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>50200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>444400</v>
+      </c>
+      <c r="E61" s="3">
         <v>428700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>8600</v>
       </c>
       <c r="F61" s="3">
         <v>8600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,18 +2300,21 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,12 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,24 +2432,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>611100</v>
+      </c>
+      <c r="E66" s="3">
         <v>459000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,24 +2612,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-430100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-108200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,24 +2744,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>285300</v>
+      </c>
+      <c r="E76" s="3">
         <v>197700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,24 +2848,27 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-67700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,24 +3094,27 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-258100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,23 +3145,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,24 +3241,27 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-253200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-98600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,24 +3421,27 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E100" s="3">
         <v>631000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,24 +3487,27 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-390500</v>
+      </c>
+      <c r="E102" s="3">
         <v>484900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>TLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,27 +711,30 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>210500</v>
+      </c>
+      <c r="E8" s="3">
         <v>167000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12600</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,27 +747,30 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E9" s="3">
         <v>190500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,27 +783,30 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-23500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,26 +838,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,18 +907,21 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>80600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -918,32 +937,35 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E15" s="3">
         <v>13400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,26 +995,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>350500</v>
+      </c>
+      <c r="E17" s="3">
         <v>468700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,27 +1028,30 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-301700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-57700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="E20" s="3">
         <v>6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,27 +1116,30 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-218800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-279100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-59500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,27 +1152,30 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E22" s="3">
         <v>34700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,27 +1188,30 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-276700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-329600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-72200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4500</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1212,12 +1257,15 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,27 +1296,30 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-271100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-321200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-67700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,27 +1332,30 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-271100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-321200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-67700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,27 +1548,30 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-271100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-321200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-67700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,27 +1620,30 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-271100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-321200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-67700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,26 +1732,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E41" s="3">
         <v>96800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>487300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,21 +1765,24 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>30300</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1709,30 +1798,33 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E43" s="3">
         <v>43000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E44" s="3">
         <v>87900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E45" s="3">
         <v>31300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,27 +1909,30 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E46" s="3">
         <v>259000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>554300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,21 +1945,24 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E47" s="3">
         <v>35600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>16900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,30 +1978,33 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E48" s="3">
         <v>201700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>80200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>40000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>353400</v>
+      </c>
+      <c r="E49" s="3">
         <v>392100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,27 +2197,30 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>945900</v>
+      </c>
+      <c r="E54" s="3">
         <v>896300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>656700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E57" s="3">
         <v>39100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,27 +2301,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,27 +2337,30 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E59" s="3">
         <v>53300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2234,30 +2370,33 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E60" s="3">
         <v>92400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>306300</v>
+      </c>
+      <c r="E61" s="3">
         <v>444400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>428700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>8600</v>
       </c>
       <c r="G61" s="3">
         <v>8600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,21 +2445,24 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E62" s="3">
         <v>74300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,12 +2478,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,27 +2589,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E66" s="3">
         <v>611100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>459000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,27 +2785,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-730100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-430100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-108200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,27 +2929,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>373900</v>
+      </c>
+      <c r="E76" s="3">
         <v>285300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>197700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,27 +3042,30 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-271100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-321200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-67700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E83" s="3">
         <v>15800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,27 +3310,30 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-129400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-258100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,26 +3365,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-50200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,27 +3470,30 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-253200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-98600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,27 +3666,30 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>264800</v>
+      </c>
+      <c r="E100" s="3">
         <v>114700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>631000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>6100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,27 +3738,30 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-390500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>484900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>TLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,30 +715,33 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>513100</v>
+      </c>
+      <c r="E8" s="3">
         <v>210500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>167000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,30 +754,33 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>389900</v>
+      </c>
+      <c r="E9" s="3">
         <v>185800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>190500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,30 +793,33 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E10" s="3">
         <v>24700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-23500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,29 +852,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,21 +927,24 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>80600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,35 +960,38 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E15" s="3">
         <v>16400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1005,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,29 +1022,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>815700</v>
+      </c>
+      <c r="E17" s="3">
         <v>350500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>468700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19700</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,30 +1058,33 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-302600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-140000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-301700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-57700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,9 +1097,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,29 +1117,30 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-97500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,30 +1153,33 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-246300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-218800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-279100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-59500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,30 +1192,33 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E22" s="3">
         <v>39200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,30 +1231,33 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-276700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-329600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-72200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,29 +1270,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1260,12 +1306,15 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,30 +1348,33 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-271100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-321200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-67700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,30 +1387,33 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-367400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-271100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-321200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-67700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7900</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1371,9 +1426,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,30 +1582,33 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E32" s="3">
         <v>97500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,30 +1621,33 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-367400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-271100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-321200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-67700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,9 +1660,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,30 +1699,33 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-367400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-271100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-321200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-67700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1659,35 +1738,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1782,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,29 +1819,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>488500</v>
+      </c>
+      <c r="E41" s="3">
         <v>189700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>487300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,24 +1855,27 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>30300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,33 +1891,36 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E43" s="3">
         <v>41200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1840,30 +1933,33 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>256400</v>
+      </c>
+      <c r="E44" s="3">
         <v>93600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>87900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,30 +1972,33 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,30 +2011,33 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>883600</v>
+      </c>
+      <c r="E46" s="3">
         <v>347000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>259000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>554300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1948,24 +2050,27 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E47" s="3">
         <v>23700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>35600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>16900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,33 +2086,36 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E48" s="3">
         <v>217500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>201700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,30 +2128,33 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4438700</v>
+      </c>
+      <c r="E49" s="3">
         <v>353400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>392100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2167,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,30 +2245,33 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2284,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,30 +2323,33 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6025400</v>
+      </c>
+      <c r="E54" s="3">
         <v>945900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>896300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>656700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,9 +2362,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,29 +2399,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E57" s="3">
         <v>17800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2304,30 +2435,33 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>42600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,30 +2474,33 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>297500</v>
+      </c>
+      <c r="E59" s="3">
         <v>162000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,33 +2510,36 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>401200</v>
+      </c>
+      <c r="E60" s="3">
         <v>181300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,29 +2552,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>870600</v>
+      </c>
+      <c r="E61" s="3">
         <v>306300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>444400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>428700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>8600</v>
       </c>
       <c r="H61" s="3">
         <v>8600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,24 +2591,27 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>288200</v>
+      </c>
+      <c r="E62" s="3">
         <v>84500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,12 +2627,15 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,30 +2747,33 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1566300</v>
+      </c>
+      <c r="E66" s="3">
         <v>572000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>611100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>459000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2628,9 +2786,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,30 +2959,33 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-486100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-730100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-430100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2824,9 +2998,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,30 +3115,33 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4459100</v>
+      </c>
+      <c r="E76" s="3">
         <v>373900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>285300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>197700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,9 +3154,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3193,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,30 +3237,33 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-367400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-271100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-321200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-67700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,9 +3276,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,29 +3296,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E83" s="3">
         <v>18700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3332,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,30 +3527,33 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-129400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-258100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3349,9 +3566,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,29 +3586,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-50200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3401,9 +3622,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,30 +3700,33 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-253200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-98600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,9 +3739,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,30 +3912,33 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E100" s="3">
         <v>264800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>114700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>631000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3705,30 +3951,33 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,30 +3990,33 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E102" s="3">
         <v>92900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-390500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>484900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +4029,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>170500</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -1029,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>815700</v>
+        <v>645300</v>
       </c>
       <c r="E17" s="3">
         <v>350500</v>
@@ -1068,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-302600</v>
+        <v>-132200</v>
       </c>
       <c r="E18" s="3">
         <v>-140000</v>
@@ -1124,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11500</v>
+        <v>-181900</v>
       </c>
       <c r="E20" s="3">
         <v>-97500</v>
@@ -1592,7 +1592,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11500</v>
+        <v>181900</v>
       </c>
       <c r="E32" s="3">
         <v>97500</v>

--- a/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>TLRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,33 +718,36 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>628400</v>
+      </c>
+      <c r="E8" s="3">
         <v>513100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>210500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>167000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,33 +760,36 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>511600</v>
+      </c>
+      <c r="E9" s="3">
         <v>389900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>185800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>190500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,33 +802,36 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E10" s="3">
         <v>123200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-23500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,9 +844,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,32 +865,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,24 +946,27 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>394800</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>80600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,38 +982,41 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E15" s="3">
         <v>35200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1008,9 +1030,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,32 +1048,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1238800</v>
+      </c>
+      <c r="E17" s="3">
         <v>645300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>350500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>468700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,33 +1087,36 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-610400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-132200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-140000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-301700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-57700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1100,9 +1129,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,32 +1150,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-181900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-97500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,33 +1189,36 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-246400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-246300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-218800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-279100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-59500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1195,33 +1231,36 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E22" s="3">
         <v>30900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,33 +1273,36 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-440700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-345000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-276700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-329600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-72200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1273,32 +1315,35 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1309,12 +1354,15 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,33 +1399,36 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-434100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-336000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-271100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-321200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-67700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,33 +1441,36 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-476800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-367400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-271100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-321200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-67700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,9 +1483,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,33 +1651,36 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="E32" s="3">
         <v>181900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>97500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,33 +1693,36 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-476800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-367400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-271100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-321200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-67700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,9 +1735,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,33 +1777,36 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-476800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-367400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-271100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-321200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-67700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,38 +1819,41 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1785,9 +1866,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,32 +1905,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>415900</v>
+      </c>
+      <c r="E41" s="3">
         <v>488500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>189700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>487300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1858,9 +1944,12 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,15 +1959,15 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>30300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,36 +1983,39 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E43" s="3">
         <v>99100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,33 +2028,36 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>245500</v>
+      </c>
+      <c r="E44" s="3">
         <v>256400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>93600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>87900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,33 +2070,36 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E45" s="3">
         <v>39600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2014,33 +2112,36 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>803500</v>
+      </c>
+      <c r="E46" s="3">
         <v>883600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>347000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>259000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>554300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,27 +2154,30 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E47" s="3">
         <v>25800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>35600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>16900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,36 +2193,39 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600500</v>
+      </c>
+      <c r="E48" s="3">
         <v>669000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>217500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>201700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2131,33 +2238,36 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3919200</v>
+      </c>
+      <c r="E49" s="3">
         <v>4438700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>353400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>392100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,9 +2280,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,33 +2364,36 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,9 +2406,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,33 +2448,36 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5449700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6025400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>945900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>896300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>656700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,9 +2490,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,32 +2529,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E57" s="3">
         <v>57700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,33 +2568,36 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E58" s="3">
         <v>46000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,33 +2610,36 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>125800</v>
+      </c>
+      <c r="E59" s="3">
         <v>297500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>53300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2513,36 +2649,39 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>280300</v>
+      </c>
+      <c r="E60" s="3">
         <v>401200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>181300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>50200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2555,32 +2694,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>519800</v>
+      </c>
+      <c r="E61" s="3">
         <v>870600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>306300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>444400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>428700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>8600</v>
       </c>
       <c r="I61" s="3">
         <v>8600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2594,27 +2736,30 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E62" s="3">
         <v>288200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2630,12 +2775,15 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,33 +2904,36 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1050900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1566300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>572000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>611100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>459000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2789,9 +2946,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,33 +3132,36 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-962900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-486100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-730100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-430100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,9 +3174,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,33 +3300,36 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4398800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4459100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>373900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>285300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>197700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,9 +3342,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,38 +3384,41 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3240,33 +3431,36 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-476800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-367400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-271100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-321200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-67700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,9 +3473,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,32 +3494,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E83" s="3">
         <v>67800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3335,9 +3533,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,33 +3743,36 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-44700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-129400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-258100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3569,9 +3785,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,32 +3806,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,9 +3845,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,33 +3929,36 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E94" s="3">
         <v>46100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-253200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-98600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,9 +3971,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,33 +4157,36 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E100" s="3">
         <v>124300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>264800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>114700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>631000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3954,33 +4199,36 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3993,33 +4241,36 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="E102" s="3">
         <v>127800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>92900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-390500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>484900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4283,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLRY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,50 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,36 +721,39 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>627100</v>
+      </c>
+      <c r="E8" s="3">
         <v>628400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>513100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>210500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>167000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -763,36 +766,39 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>480200</v>
+      </c>
+      <c r="E9" s="3">
         <v>511600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>389900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>185800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>190500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,36 +811,39 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E10" s="3">
         <v>116800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>123200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-23500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,9 +856,12 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,35 +878,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,9 +920,12 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,27 +965,30 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>944400</v>
+      </c>
+      <c r="E14" s="3">
         <v>394800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>80600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,41 +1004,44 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E15" s="3">
         <v>115200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>16400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>100</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1033,9 +1055,12 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1049,35 +1074,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1996800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1238800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>645300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>350500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>468700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,36 +1116,39 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1369700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-610400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-132200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-140000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-301700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-57700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1132,9 +1161,12 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1151,35 +1183,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E20" s="3">
         <v>209400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-181900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-97500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,36 +1225,39 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1273400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-246400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-246300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-218800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-279100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-59500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,36 +1270,39 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E22" s="3">
         <v>39700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>30900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>39200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1276,36 +1315,39 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1450200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-440700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-345000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-276700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-329600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-72200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,35 +1360,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1357,12 +1402,15 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,36 +1450,39 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1443000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-434100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-336000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-271100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-321200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-67700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,36 +1495,39 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1452700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-476800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-367400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-271100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-321200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-67700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,9 +1540,12 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1528,9 +1585,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1570,9 +1630,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1612,9 +1675,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1654,36 +1720,39 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-209400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>181900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>97500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1696,36 +1765,39 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1452700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-476800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-367400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-271100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-321200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-67700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1738,9 +1810,12 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1780,36 +1855,39 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1452700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-476800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-367400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-271100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-321200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-67700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,41 +1900,44 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1869,9 +1950,12 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1888,8 +1972,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1906,35 +1991,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E41" s="3">
         <v>415900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>488500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>189700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>487300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,14 +2033,17 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>241900</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1962,15 +2051,15 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>30300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,39 +2075,42 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E43" s="3">
         <v>95300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,36 +2123,39 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E44" s="3">
         <v>245500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>256400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>93600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>87900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2073,36 +2168,39 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E45" s="3">
         <v>46800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2115,36 +2213,39 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>773000</v>
+      </c>
+      <c r="E46" s="3">
         <v>803500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>883600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>347000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>259000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>554300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2157,30 +2258,33 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E47" s="3">
         <v>126200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>25800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>35600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>16900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,39 +2300,42 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>435600</v>
+      </c>
+      <c r="E48" s="3">
         <v>600500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>669000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>217500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>201700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>40000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,36 +2348,39 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2982600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3919200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4438700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>353400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>392100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,9 +2393,12 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2325,9 +2438,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2367,36 +2483,39 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,9 +2528,12 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2451,36 +2573,39 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4307300</v>
+      </c>
+      <c r="E54" s="3">
         <v>5449700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6025400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>945900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>896300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>656700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,9 +2618,12 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2512,8 +2640,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2530,35 +2659,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E57" s="3">
         <v>68600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,36 +2701,39 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E58" s="3">
         <v>85900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,36 +2746,39 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E59" s="3">
         <v>125800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>297500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>53300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,39 +2788,42 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E60" s="3">
         <v>280300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>401200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>181300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>50200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,35 +2836,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>357900</v>
+      </c>
+      <c r="E61" s="3">
         <v>519800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>870600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>306300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>444400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>428700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>8600</v>
       </c>
       <c r="J61" s="3">
         <v>8600</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2739,30 +2881,33 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E62" s="3">
         <v>208200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>288200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2778,12 +2923,15 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2823,9 +2971,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2865,9 +3016,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2907,36 +3061,39 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>991600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1050900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1566300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>572000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>611100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>459000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2949,9 +3106,12 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2968,8 +3128,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3009,9 +3170,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3051,9 +3215,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3093,9 +3260,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3135,36 +3305,39 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2415500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-962900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-486100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-730100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-430100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-108200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,9 +3350,12 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3219,9 +3395,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3261,9 +3440,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3303,36 +3485,39 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3315700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4398800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4459100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>373900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>285300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>197700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3345,9 +3530,12 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3387,41 +3575,44 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3434,36 +3625,39 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1452700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-476800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-367400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-271100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-321200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-67700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,9 +3670,12 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3495,35 +3692,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E83" s="3">
         <v>154600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3536,9 +3734,12 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3578,9 +3779,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3620,9 +3824,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3662,9 +3869,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3704,9 +3914,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3746,36 +3959,39 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-177300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-44700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-129400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-258100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3788,9 +4004,12 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3807,35 +4026,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-73700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-50200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,9 +4068,12 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3890,9 +4113,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3932,36 +4158,39 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-285100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>46100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-253200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-98600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3974,9 +4203,12 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3993,8 +4225,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4034,9 +4267,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4076,9 +4312,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4118,9 +4357,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4160,36 +4402,39 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E100" s="3">
         <v>128200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>124300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>264800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>114700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>631000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,36 +4447,39 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4244,36 +4492,39 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-209300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-72600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>127800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>92900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-390500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>484900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,7 +4537,10 @@
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
